--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1188"/>
+  <dimension ref="A1:I1189"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43540,6 +43540,43 @@
         </is>
       </c>
     </row>
+    <row r="1189">
+      <c r="A1189" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1189" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1189" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1189" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1189" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1189" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1189" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1189" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1189" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1189"/>
+  <dimension ref="A1:I1190"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43577,6 +43577,43 @@
         </is>
       </c>
     </row>
+    <row r="1190">
+      <c r="A1190" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1190" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1190" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1190" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1190" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1190" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1190" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1190" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1190" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1190"/>
+  <dimension ref="A1:I1191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43614,6 +43614,43 @@
         </is>
       </c>
     </row>
+    <row r="1191">
+      <c r="A1191" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1191" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1191" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1191" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1191" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1191" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1191" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1191" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1191" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1191"/>
+  <dimension ref="A1:I1192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43651,6 +43651,43 @@
         </is>
       </c>
     </row>
+    <row r="1192">
+      <c r="A1192" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1192" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1192" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1192" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1192" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1192" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1192" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1192" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1192" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1192"/>
+  <dimension ref="A1:I1193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43688,6 +43688,43 @@
         </is>
       </c>
     </row>
+    <row r="1193">
+      <c r="A1193" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1193" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1193" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1193" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1193" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1193" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1193" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1193" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1193" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1193"/>
+  <dimension ref="A1:I1194"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43725,6 +43725,43 @@
         </is>
       </c>
     </row>
+    <row r="1194">
+      <c r="A1194" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1194" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1194" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1194" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1194" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1194" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1194" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1194" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1194" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1194"/>
+  <dimension ref="A1:I1195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43762,6 +43762,43 @@
         </is>
       </c>
     </row>
+    <row r="1195">
+      <c r="A1195" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1195" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1195" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1195" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1195" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="F1195" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G1195" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1195" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1195" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1195"/>
+  <dimension ref="A1:I1196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43799,6 +43799,41 @@
         </is>
       </c>
     </row>
+    <row r="1196">
+      <c r="A1196" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1196" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1196" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1196" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1196" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="H1196" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1196" t="n">
+        <v>11100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1196"/>
+  <dimension ref="A1:I1197"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43834,6 +43834,43 @@
         <v>11100</v>
       </c>
     </row>
+    <row r="1197">
+      <c r="A1197" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1197" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1197" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1197" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="F1197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G1197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="H1197" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="I1197" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1197"/>
+  <dimension ref="A1:I1198"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43871,6 +43871,41 @@
         </is>
       </c>
     </row>
+    <row r="1198">
+      <c r="A1198" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1198" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1198" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1198" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1198" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F1198" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G1198" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1198" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1198" t="n">
+        <v>6900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1198"/>
+  <dimension ref="A1:I1199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43906,6 +43906,43 @@
         <v>6900</v>
       </c>
     </row>
+    <row r="1199">
+      <c r="A1199" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1199" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1199" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1199" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1199" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1199" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1199" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1199" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1199" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1199"/>
+  <dimension ref="A1:I1200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43943,6 +43943,43 @@
         </is>
       </c>
     </row>
+    <row r="1200">
+      <c r="A1200" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1200" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1200" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1200" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1200" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1200" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1200" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1200" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1200" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1200"/>
+  <dimension ref="A1:I1202"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43980,6 +43980,80 @@
         </is>
       </c>
     </row>
+    <row r="1201">
+      <c r="A1201" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1201" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1201" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1201" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1201" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1201" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1201" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1201" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1201" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1202">
+      <c r="A1202" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1202" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1202" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1202" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1202" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1202" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1202" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1202" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1202" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1202"/>
+  <dimension ref="A1:I1204"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44054,6 +44054,80 @@
         </is>
       </c>
     </row>
+    <row r="1203">
+      <c r="A1203" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1203" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1203" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1203" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1203" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1203" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1203" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1203" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1203" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1204">
+      <c r="A1204" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1204" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1204" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1204" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1204" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1204" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1204" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1204" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1204" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1204"/>
+  <dimension ref="A1:I1205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44128,6 +44128,43 @@
         </is>
       </c>
     </row>
+    <row r="1205">
+      <c r="A1205" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1205" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1205" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1205" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1205" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1205" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1205" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1205" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1205" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1205"/>
+  <dimension ref="A1:I1206"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44165,6 +44165,43 @@
         </is>
       </c>
     </row>
+    <row r="1206">
+      <c r="A1206" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1206" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1206" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1206" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1206" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1206" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1206" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1206" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1206" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1206"/>
+  <dimension ref="A1:I1207"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44202,6 +44202,43 @@
         </is>
       </c>
     </row>
+    <row r="1207">
+      <c r="A1207" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1207" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1207" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1207" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1207" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1207" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1207" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1207" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1207" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1207"/>
+  <dimension ref="A1:I1208"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44239,6 +44239,43 @@
         </is>
       </c>
     </row>
+    <row r="1208">
+      <c r="A1208" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1208" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1208" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1208" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1208" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1208" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1208" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1208" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1208" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1208"/>
+  <dimension ref="A1:I1210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44276,6 +44276,80 @@
         </is>
       </c>
     </row>
+    <row r="1209">
+      <c r="A1209" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1209" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1209" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1209" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1209" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1209" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1209" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1209" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1209" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1210">
+      <c r="A1210" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1210" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1210" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1210" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1210" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1210" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1210" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1210" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1210" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1210"/>
+  <dimension ref="A1:I1211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44350,6 +44350,43 @@
         </is>
       </c>
     </row>
+    <row r="1211">
+      <c r="A1211" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1211" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1211" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1211" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1211" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1211" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1211" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1211" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1211" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1211"/>
+  <dimension ref="A1:I1212"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44387,6 +44387,43 @@
         </is>
       </c>
     </row>
+    <row r="1212">
+      <c r="A1212" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1212" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1212" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1212" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1212" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1212" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1212" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1212" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1212" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1647"/>
+  <dimension ref="A1:I1648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59649,6 +59649,43 @@
         </is>
       </c>
     </row>
+    <row r="1648">
+      <c r="A1648" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B1648" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C1648" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1648" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1648" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1648" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1648" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1648" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1648" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1648"/>
+  <dimension ref="A1:I1649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59686,6 +59686,43 @@
         </is>
       </c>
     </row>
+    <row r="1649">
+      <c r="A1649" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B1649" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C1649" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1649" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1649" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1649" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1649" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1649" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1649" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1649"/>
+  <dimension ref="A1:I1650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59723,6 +59723,43 @@
         </is>
       </c>
     </row>
+    <row r="1650">
+      <c r="A1650" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B1650" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C1650" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1650" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1650" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1650" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1650" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1650" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1650" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1650"/>
+  <dimension ref="A1:I1651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59760,6 +59760,43 @@
         </is>
       </c>
     </row>
+    <row r="1651">
+      <c r="A1651" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B1651" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C1651" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1651" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1651" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1651" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1651" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1651" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1651" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1651"/>
+  <dimension ref="A1:I1652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59797,6 +59797,43 @@
         </is>
       </c>
     </row>
+    <row r="1652">
+      <c r="A1652" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B1652" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C1652" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1652" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1652" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1652" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1652" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1652" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1652" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1652"/>
+  <dimension ref="A1:I1653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59834,6 +59834,43 @@
         </is>
       </c>
     </row>
+    <row r="1653">
+      <c r="A1653" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B1653" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C1653" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1653" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1653" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1653" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1653" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1653" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1653" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1653"/>
+  <dimension ref="A1:I1654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59871,6 +59871,43 @@
         </is>
       </c>
     </row>
+    <row r="1654">
+      <c r="A1654" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B1654" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C1654" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1654" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1654" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1654" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1654" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1654" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1654" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7053.xlsx
+++ b/data/7053.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1654"/>
+  <dimension ref="A1:I1655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59908,6 +59908,43 @@
         </is>
       </c>
     </row>
+    <row r="1655">
+      <c r="A1655" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B1655" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C1655" t="inlineStr">
+        <is>
+          <t>7053</t>
+        </is>
+      </c>
+      <c r="D1655" t="inlineStr">
+        <is>
+          <t>SEEHUP</t>
+        </is>
+      </c>
+      <c r="E1655" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="F1655" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G1655" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H1655" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1655" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
